--- a/gestion/WPD.xlsx
+++ b/gestion/WPD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="9348" firstSheet="28" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="9348" firstSheet="27" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="1.0.1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="156">
   <si>
     <t>Titre</t>
   </si>
@@ -236,13 +236,357 @@
   </si>
   <si>
     <t>Les trajectoires de référence et mesurée</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Force en fonction de la distance et du courant</t>
+  </si>
+  <si>
+    <t>Maxime Breton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Représentation mathématique de la force des actionneurs </t>
+  </si>
+  <si>
+    <t>Représentation mathématique de la dépendance de la force des actionneurs sur la distance et le courant</t>
+  </si>
+  <si>
+    <t>Archive Matlab fournie par la SBB</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>Voltage en fonction de la distance</t>
+  </si>
+  <si>
+    <t>Représentation mathématique de la dépendance du voltage sur la distance</t>
+  </si>
+  <si>
+    <t>Représentation mathématique de V en fonction de D</t>
+  </si>
+  <si>
+    <t>Identification des actionneurs</t>
+  </si>
+  <si>
+    <t>Identification des actionneurs sous forme de boîte grise à partir de mesures fournies par le client</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>Actionneurs sous forme de boîte grise</t>
+  </si>
+  <si>
+    <t>Identification des capteurs</t>
+  </si>
+  <si>
+    <t>Identification des capteurs à effet Hall sous forme de boîte grise à partir de mesures fournies par le client</t>
+  </si>
+  <si>
+    <t>Capteurs à effet Hall sous forme de boîte grise</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Asservissement de la plaque seule</t>
+  </si>
+  <si>
+    <t>Louis Lepitre</t>
+  </si>
+  <si>
+    <t>Asservissement de la plaque seule pour maintenir en différentes positions</t>
+  </si>
+  <si>
+    <t>Contrôle de l'inclinaison et de la hauteur de la plaque</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les angles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>φ et θ et z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>eq</t>
+    </r>
+  </si>
+  <si>
+    <t>Asservissement de la sphère</t>
+  </si>
+  <si>
+    <t>Asservissement de la sphère pour la positionner en des positions commandées par le RFID</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>Contrôle de la position de la sphère selon le trajet du train</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>Gabriel Lemieux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tensions aux actionneurs </t>
+  </si>
+  <si>
+    <t>Calcul des tensions électriques aux actionneurs assurant l’équilibre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Équations différentielles linéarisés </t>
+  </si>
+  <si>
+    <t>Validation sur le banc d'essai</t>
+  </si>
+  <si>
+    <t>Tensions aux actionneurs calculées</t>
+  </si>
+  <si>
+    <t>Fonctionnement du banc d'essai</t>
+  </si>
+  <si>
+    <t>Validation sur le banc d’essai en mesurant les tensions</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonctions d'interpolations </t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>Frédéric Perron</t>
+  </si>
+  <si>
+    <t>Calcul des fonctions d’interpolation</t>
+  </si>
+  <si>
+    <t>Coordonnées de la trajectoire</t>
+  </si>
+  <si>
+    <t>Fonctions d'interpolation</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+  </si>
+  <si>
+    <t>Validation MATLAB</t>
+  </si>
+  <si>
+    <t>Validation par simulation Matlab</t>
+  </si>
+  <si>
+    <t>Simulations/Graphiques</t>
+  </si>
+  <si>
+    <t>1.7.1</t>
+  </si>
+  <si>
+    <t>Éric Matte</t>
+  </si>
+  <si>
+    <t>Algorithme de calcul du déplacement de la sphère</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement d’un algorithme de calcul de la position et de la vitesse de la sphère suite à
+l’analyse et au traitement des images fournies par la caméra </t>
+  </si>
+  <si>
+    <t>Position et vitesse par rapport au temps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image venant de la caméra </t>
+  </si>
+  <si>
+    <t>Estimation de l'erreur sur le calcul</t>
+  </si>
+  <si>
+    <t>1.7.2</t>
+  </si>
+  <si>
+    <t>Estimation de l’erreur sur le calcul de la vitesse</t>
+  </si>
+  <si>
+    <t>1.7.3</t>
+  </si>
+  <si>
+    <t>Validation Matlab</t>
+  </si>
+  <si>
+    <t>Implantation et validation de l’algorithme sur Matlab</t>
+  </si>
+  <si>
+    <t>Implantation en C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implantation de l’algorithme en C/C++ </t>
+  </si>
+  <si>
+    <t>Validation sur banc d'essai</t>
+  </si>
+  <si>
+    <t>1.7.5</t>
+  </si>
+  <si>
+    <t>1.7.4</t>
+  </si>
+  <si>
+    <t>Erreur sur le calcul</t>
+  </si>
+  <si>
+    <t>Précisions de la dérivée numérique</t>
+  </si>
+  <si>
+    <t>Algorithme de la position et vitesse par rapport au temps</t>
+  </si>
+  <si>
+    <t>Validation/Graphique</t>
+  </si>
+  <si>
+    <t>Code C++ de l'algorithme</t>
+  </si>
+  <si>
+    <t>1.8.1</t>
+  </si>
+  <si>
+    <t>Joël Perrons-Langlois</t>
+  </si>
+  <si>
+    <t>Spécification requise pour les filtres</t>
+  </si>
+  <si>
+    <t>Détermination des spécifications requises pour les filtres en fonction des spécifications de fréquence du système RFID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spécifications de fréquence du système RFID</t>
+  </si>
+  <si>
+    <t>Spécifications requises pour les filtre</t>
+  </si>
+  <si>
+    <t>Conception des filtres (Matlab)</t>
+  </si>
+  <si>
+    <t>Fréqueces, ordres, ronflement et atténuation minimale des filtres</t>
+  </si>
+  <si>
+    <t>1.8.2</t>
+  </si>
+  <si>
+    <t>Conception des filtres sur Matlab</t>
+  </si>
+  <si>
+    <t>Liste de spécifications</t>
+  </si>
+  <si>
+    <t>1.8.3</t>
+  </si>
+  <si>
+    <t>1.9.1</t>
+  </si>
+  <si>
+    <t>Jonathan Boucher</t>
+  </si>
+  <si>
+    <t>Définir un problème d'ingénierie</t>
+  </si>
+  <si>
+    <t>Créer un problème d’ingénierie utilisant le banc d’essai et les compétences acquises durant la session</t>
+  </si>
+  <si>
+    <t>1.9.2</t>
+  </si>
+  <si>
+    <t>Développer la solution</t>
+  </si>
+  <si>
+    <t>Développer la solution au problème</t>
+  </si>
+  <si>
+    <t>Démontrer la solution</t>
+  </si>
+  <si>
+    <t>Démontrer la solution sur le banc d’essai</t>
+  </si>
+  <si>
+    <t>1.9.3</t>
+  </si>
+  <si>
+    <t>Visualisation sur Blender</t>
+  </si>
+  <si>
+    <t>1.9.4</t>
+  </si>
+  <si>
+    <t>Visualiser la solution dans Blender selon le requis F-2.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +609,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,7 +639,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -366,11 +731,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -392,6 +807,33 @@
     </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,7 +1287,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -926,96 +1368,673 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>42576</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42576</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42576</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42576</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42531</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42557</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42531</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42557</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42576</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42583</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1106,122 +2125,840 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42531</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42552</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42531</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42552</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="78" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42531</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42552</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42531</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42552</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42580</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42583</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42583</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42531</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42583</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42531</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42583</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42583</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1312,50 +3049,304 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/gestion/WPD.xlsx
+++ b/gestion/WPD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\UNI\S4\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\UNI\S4\Projet\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="159">
   <si>
     <t>Titre</t>
   </si>
@@ -580,6 +580,15 @@
   </si>
   <si>
     <t>Visualiser la solution dans Blender selon le requis F-2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Définition de l'innovation </t>
+  </si>
+  <si>
+    <t>Banc d'esssai et compétences de la session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code/Simulation </t>
   </si>
 </sst>
 </file>
@@ -2884,7 +2893,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3052,7 +3061,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3094,29 +3103,37 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>42529</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>42583</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3128,7 +3145,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3174,25 +3191,33 @@
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>42529</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>42583</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3204,7 +3229,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3250,25 +3275,33 @@
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>42559</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>42583</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3280,7 +3313,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3322,29 +3355,37 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>42529</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>42583</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
